--- a/x_TotalArea_y_MVPA/X_Train.xlsx
+++ b/x_TotalArea_y_MVPA/X_Train.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B517"/>
+  <dimension ref="A1:B516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.8575051279575505</v>
+        <v>-0.7971668243615434</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.8679028326949487</v>
+        <v>0.6513069787656695</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.7423639344585489</v>
+        <v>-0.08128604776716765</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.859873173156995</v>
+        <v>-0.6741898408813</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2175422764680816</v>
+        <v>-0.6529509864781251</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.933650393700503</v>
+        <v>2.440310209739094</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.6337212987383276</v>
+        <v>-0.413165688502225</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.577340095132958</v>
+        <v>0.6435517977407229</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8381099264234702</v>
+        <v>-0.4737308329588749</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.5674141116443084</v>
+        <v>0.09400258942759092</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.4605750442621744</v>
+        <v>-0.866711926763947</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.08791748683358831</v>
+        <v>0.5190077401211918</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.110337783010326</v>
+        <v>2.840919114817931</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4985189093335747</v>
+        <v>1.855901691604743</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.8333550453093206</v>
+        <v>0.7228876584448921</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.1392382121164746</v>
+        <v>0.3515898185678177</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6954891915672676</v>
+        <v>-0.6380676070044538</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.552353871096158</v>
+        <v>-0.2647984756027345</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.6193423276281577</v>
+        <v>-0.7366537052702935</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.2587235537644647</v>
+        <v>0.625864670330027</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.538936512595794</v>
+        <v>-0.9257519520707638</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.058292217734074</v>
+        <v>0.9268882421687181</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.8848110962791877</v>
+        <v>1.197965165602436</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.7560121930024239</v>
+        <v>-0.1134336575463906</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.6877975844262303</v>
+        <v>0.5890765891357785</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.617762435730295</v>
+        <v>-0.822039647012513</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.5662130749957411</v>
+        <v>-0.5298884575540304</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1711673541364594</v>
+        <v>-0.8847898967095699</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.601720247665891</v>
+        <v>-0.8289922376418785</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.8749165659124339</v>
+        <v>-0.2016301265620436</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.8037963861309166</v>
+        <v>1.595922762885756</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.1976960252021527</v>
+        <v>-0.6690713555222368</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.571227600411599</v>
+        <v>2.520787683468006</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.6492953369586526</v>
+        <v>-0.7925432815933499</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5074932629799579</v>
+        <v>0.4053291518885013</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.4085089764901697</v>
+        <v>1.42864607183817</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.7893591476516807</v>
+        <v>-0.6955962661480541</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.8799280425524214</v>
+        <v>1.066694840991956</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.7064827009911702</v>
+        <v>1.13802095029562</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.3151639450190233</v>
+        <v>0.2593390686028887</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.773563959954559</v>
+        <v>-0.5239515285103267</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.6984751933461897</v>
+        <v>2.968360763486016</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.6125258145574171</v>
+        <v>2.141407085272534</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.526673414433548</v>
+        <v>0.02975579190251678</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1673538952673534</v>
+        <v>1.551408223372774</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.945961673436212</v>
+        <v>-0.3064202741758237</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.812224574592615</v>
+        <v>-0.8445966191172817</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.7853804574580815</v>
+        <v>-0.8265618673515954</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.2223151447133352</v>
+        <v>0.8814563636079041</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.7982224136881908</v>
+        <v>-0.7077895805703308</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.8188719239698743</v>
+        <v>0.1502361673498132</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1422452686250498</v>
+        <v>-0.7585523437904645</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.159444111442294</v>
+        <v>-0.9347717570259104</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.848683890026003</v>
+        <v>0.1801728276670321</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.6125554273337379</v>
+        <v>-0.8953475118552274</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.9097873389206935</v>
+        <v>0.2257701589019605</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.7357437506065305</v>
+        <v>0.7248152647159475</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.9059909620309178</v>
+        <v>-0.8523608155004861</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.6418660402121747</v>
+        <v>-0.7735532088997606</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.8779919068058782</v>
+        <v>-0.8535811885328451</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.5374495722043214</v>
+        <v>-0.8479671719824842</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6973514698846565</v>
+        <v>-0.8084069410969973</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.7044174281273312</v>
+        <v>-0.9244097869550446</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.7502362256801977</v>
+        <v>0.1827217286943555</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.354707065619198</v>
+        <v>0.05840017522639124</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.8221282463904488</v>
+        <v>-0.764168286877533</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.61518592937583</v>
+        <v>-0.7089242459174249</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.7938589542015745</v>
+        <v>-0.8552945720103333</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.2568512034529584</v>
+        <v>-0.8709768644271684</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.696336592941343</v>
+        <v>-0.7199764209450811</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.7411693653701773</v>
+        <v>-0.3742234549948975</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.2588529794331907</v>
+        <v>0.3256445822350086</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.826063074529665</v>
+        <v>-0.5843177706665957</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.8443581239193585</v>
+        <v>-0.8559890243587228</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.2023744204497312</v>
+        <v>-0.9430358161467519</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.8577030226692594</v>
+        <v>-0.7649329622702724</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.17249466001879</v>
+        <v>-0.3788581660400037</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.3117089670126751</v>
+        <v>1.544942180295127</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.2653218418354711</v>
+        <v>-0.3316271503959655</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.9210930284994859</v>
+        <v>0.8752982871296106</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.9139749462840588</v>
+        <v>1.590614008260752</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.4020624958207426</v>
+        <v>-0.02406113172098196</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.3689176798051028</v>
+        <v>1.87833054437538</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.7799267311650184</v>
+        <v>-0.9087352137937297</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.3232873570245148</v>
+        <v>-0.792107654374875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7515587428549618</v>
+        <v>-0.8670068300243352</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.533807675457778</v>
+        <v>0.2776302158790813</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.7927136240902986</v>
+        <v>-0.6857469543693622</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.6540556303768107</v>
+        <v>-0.905790506516003</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.8937517397007269</v>
+        <v>-0.9634014701264093</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.8808368158501739</v>
+        <v>-0.8205023117012638</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.691408307275219</v>
+        <v>0.07410378104744214</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.2347890846212232</v>
+        <v>-0.8951533948751483</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.7419081253675492</v>
+        <v>-0.5073348414804629</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.6654057878472941</v>
+        <v>-0.8173692761151354</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.8975339688321285</v>
+        <v>0.3921239788481174</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.3435180747518572</v>
+        <v>-0.488242346885029</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.273007923492558</v>
+        <v>-0.8187062047077431</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.7967768484816389</v>
+        <v>0.07932945366422076</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.8688152129627079</v>
+        <v>-0.826689033264398</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.4930401889272402</v>
+        <v>-0.3647836093900149</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.4841130207304062</v>
+        <v>-0.853952166984411</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.792567335074112</v>
+        <v>-0.4629794945207537</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.3759353293796635</v>
+        <v>-0.7797526647637898</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.965614291234042</v>
+        <v>0.6937669648653944</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.6706247526498754</v>
+        <v>-0.599874473358102</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.7149479849445834</v>
+        <v>0.9564055847312594</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>2.733992654687049</v>
+        <v>0.9871797562508159</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.9289168952639523</v>
+        <v>-0.6739986380660039</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.096553319573324</v>
+        <v>2.709926564376514</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.4501880763648041</v>
+        <v>0.1136790320956142</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.756225577555915</v>
+        <v>2.00104094775795</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.8188015566219541</v>
+        <v>0.5903039388178356</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.5824435865674181</v>
+        <v>-0.8217264575131429</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.7187539393596534</v>
+        <v>-0.9128489103375638</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.8685975670909938</v>
+        <v>-0.7749536829926508</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.2072485816144696</v>
+        <v>-0.8720304016198648</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.8888022074563666</v>
+        <v>-0.9387013092478801</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.125243465397921</v>
+        <v>0.2746731099002295</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.9030787975128188</v>
+        <v>-0.437866630621396</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.6542403531920956</v>
+        <v>-0.9485887280245331</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.6430748135917297</v>
+        <v>-0.9317574349801574</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.3509036394596096</v>
+        <v>-0.7195971227268814</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.7477030208472389</v>
+        <v>-0.9257801849759564</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.8453759559839162</v>
+        <v>0.7369819564697893</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.8524288064706219</v>
+        <v>-0.7900689009868183</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.1319834299447649</v>
+        <v>-0.9169800280452526</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.4259263053643895</v>
+        <v>1.262424706196521</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.9024980899392818</v>
+        <v>1.135552202900133</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.9293020555162492</v>
+        <v>0.07158892236170569</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.4745947526139034</v>
+        <v>-0.8042852450454602</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.8955105628524372</v>
+        <v>-0.3735459706799228</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.8863926586963983</v>
+        <v>-0.1718141434564293</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.2864069995011845</v>
+        <v>-0.01105079746224354</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-0.1688905270654323</v>
+        <v>-0.6753290118481015</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.01357556572121842</v>
+        <v>0.2393918823090412</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.6553409168409737</v>
+        <v>-0.7954622875456036</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.228379432708753</v>
+        <v>0.7809241064173686</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.916195216596242</v>
+        <v>-0.800670223046193</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.1425216924505896</v>
+        <v>-0.7180378548449289</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.802099299494992</v>
+        <v>0.3781750765679557</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.1736298710869514</v>
+        <v>-0.2428368326537241</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.3624591653632984</v>
+        <v>-0.01644647363429936</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.8226350670114519</v>
+        <v>-0.777981647073553</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.01878837857296508</v>
+        <v>2.832900980507057</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0.75451458092047</v>
+        <v>0.9020686042337154</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.6660753032608157</v>
+        <v>-0.1918778826364188</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.7058319010122298</v>
+        <v>7.604289434937317</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.8016848175277391</v>
+        <v>-0.106655892462869</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.8071203763411937</v>
+        <v>-0.2972689050383859</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7.34367534557162</v>
+        <v>1.60981079677671</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-0.10594053574908</v>
+        <v>-0.7964973430631428</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.2900935371486787</v>
+        <v>0.4178071470830523</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.4299396664101296</v>
+        <v>-0.5427375874592596</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.7724027667447958</v>
+        <v>0.9403306462712824</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.01330816976783759</v>
+        <v>1.707714381301384</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.3886929696715334</v>
+        <v>2.51465291151378</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.9055628811883437</v>
+        <v>-0.7654047609557908</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.64693943319599</v>
+        <v>-0.9026072839351005</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1.127712823709766</v>
+        <v>1.717463747498527</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.7730495588436953</v>
+        <v>0.02597620455204233</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-0.7681618477423008</v>
+        <v>-0.4271324397481044</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>2.741739048697731</v>
+        <v>0.2261614342919257</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.7525437500383703</v>
+        <v>-0.6937451157065071</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-0.8455325694304749</v>
+        <v>2.582675397002579</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.8228939269829268</v>
+        <v>-0.9531344789298377</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.8292073155964367</v>
+        <v>1.226310993865558</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1.667257098709698</v>
+        <v>2.037568221646345</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.9237313581706342</v>
+        <v>-0.7846155778562894</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1.181851150489587</v>
+        <v>-0.8747170476486185</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-0.8956404603558024</v>
+        <v>0.9785397756299129</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>2.939992867233484</v>
+        <v>1.183036824306927</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.9588469296134224</v>
+        <v>-0.7288694102384388</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>2.264747340636331</v>
+        <v>1.975111272681692</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1.140043573453684</v>
+        <v>-0.9077945611043007</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.1882742917904659</v>
+        <v>-0.6551111359376236</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1.905274052890943</v>
+        <v>-0.1445203010219291</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.8219806377389755</v>
+        <v>-0.7751944221110901</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-0.8405226368187514</v>
+        <v>-0.4087110055606004</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.6358082391893675</v>
+        <v>-0.9585019225211299</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.4730690799121114</v>
+        <v>1.366120861974443</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.7215695507960759</v>
+        <v>-0.9375941290249001</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-0.3977587852665694</v>
+        <v>-0.8232227325496674</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.6229337614575857</v>
+        <v>0.2569046071758233</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.7634038149911583</v>
+        <v>0.741836577891105</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>3.03168195185148</v>
+        <v>-0.9571017116312088</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.4109503037737986</v>
+        <v>-0.9368882719598084</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.800489098738329</v>
+        <v>-0.9620026583301703</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.3283225250904414</v>
+        <v>-0.7756975088541886</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.9275641385214439</v>
+        <v>-0.1751126430474508</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.06026958425602663</v>
+        <v>-0.9398579014225854</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.9322989886353923</v>
+        <v>-0.9468836119588228</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.7523078537772171</v>
+        <v>-0.9293262479705597</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.01612001532684814</v>
+        <v>0.2281745631066052</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.674921299413158</v>
+        <v>-0.7169377083349505</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.8686722300942489</v>
+        <v>-0.04150651318301767</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.9007300051678904</v>
+        <v>1.76695156060472</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-0.7535323446346884</v>
+        <v>-0.4770775743998495</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.6955394648773644</v>
+        <v>-0.9456567866640689</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-0.04299911547772114</v>
+        <v>-0.9566426692432519</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.667355419097898</v>
+        <v>-0.8167820431194299</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.4638083622447003</v>
+        <v>-0.9144859533106866</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>-0.9165070902380429</v>
+        <v>0.1325740247821628</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.9271206534079686</v>
+        <v>0.5577090416391516</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.8608108791847687</v>
+        <v>0.06538480985490037</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.5538700759858532</v>
+        <v>-0.528145311924369</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.4871931591613022</v>
+        <v>0.6510677049288102</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.5359085960937076</v>
+        <v>-0.7312758862851395</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.8384566804116274</v>
+        <v>0.09526539653963993</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.2452986388181737</v>
+        <v>-0.720880334648536</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.6261032675862035</v>
+        <v>-0.7047952864843671</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.6731328857825936</v>
+        <v>-0.942350283588553</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.089137496510425</v>
+        <v>-0.1786936471393322</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.6993484727684508</v>
+        <v>-0.4536330701858923</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.683808558378213</v>
+        <v>0.9589153122425905</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.9087176818264735</v>
+        <v>-0.6911489983001425</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-0.3520273706995685</v>
+        <v>-0.8148105466582782</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.4411584090280214</v>
+        <v>0.8901531086687096</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.9235176995524298</v>
+        <v>-0.9092680164049461</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.7564860896880827</v>
+        <v>1.629346608715742</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1.029729329609429</v>
+        <v>-0.7879898564828932</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-0.5272431105520167</v>
+        <v>-0.7127192122378574</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-0.2989347598480333</v>
+        <v>1.115714715391609</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.8179038103847149</v>
+        <v>-0.9118636494393542</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.7056328908139444</v>
+        <v>0.05619140109941553</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.8979497834502709</v>
+        <v>-0.6877916318447275</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.514829446839084</v>
+        <v>-0.8839956650707549</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.3788917938822844</v>
+        <v>-0.8073403340666948</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.05138774669131602</v>
+        <v>-0.8728638562076104</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>1.109252587249991</v>
+        <v>-0.677074609275755</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.8569357081081072</v>
+        <v>-0.02745534042245144</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.9424770758552423</v>
+        <v>0.3560471432229831</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.8461811642002371</v>
+        <v>-0.7871827118013881</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.6570273547246965</v>
+        <v>-0.5812465249029086</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.02942414700059556</v>
+        <v>3.141033095176595</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.34108116348825</v>
+        <v>0.7186636184185703</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>1.381875099431377</v>
+        <v>-0.06907807369698996</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-0.5644469525937442</v>
+        <v>0.3411254157184826</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.8353232936738895</v>
+        <v>-0.6648148612710333</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.7829974497587714</v>
+        <v>-0.4334349369919525</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.06963625610791442</v>
+        <v>-0.8905127989307233</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.4007480766942781</v>
+        <v>0.2688624310031433</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.6451830983385918</v>
+        <v>-0.8160685078152283</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>1.499380417318102</v>
+        <v>0.01968649229535617</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-0.4696516998083497</v>
+        <v>-0.8403975191374817</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>1.166057888189555</v>
+        <v>-0.3833587784296297</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.1794198899524498</v>
+        <v>-0.8962153492930746</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.941621658369443</v>
+        <v>-0.5003070472932444</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.6919093105697354</v>
+        <v>-0.2939053479411323</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.8279354983605557</v>
+        <v>1.017746183317972</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.4351697657195669</v>
+        <v>-0.8503338936752104</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-0.486250571705896</v>
+        <v>-0.6575026619083467</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.8859526456359004</v>
+        <v>-0.1585865511736452</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.9803547503765049</v>
+        <v>0.3752910816346519</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.03404916831590876</v>
+        <v>-0.7430220598580271</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>1.238014378303387</v>
+        <v>0.2175197696920709</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>1.941359021322677</v>
+        <v>0.1093180942529365</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.3596729110786931</v>
+        <v>-0.6873652259118088</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-0.7136387157920296</v>
+        <v>0.5123557266266876</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.2476505946082282</v>
+        <v>1.928117748851537</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.1027139382585357</v>
+        <v>-0.9355341271189129</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.6669692150110246</v>
+        <v>-0.7298648591505636</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-0.919339666011133</v>
+        <v>-0.8211788634289131</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-0.5131453776601687</v>
+        <v>1.101458752313904</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.9067274948568084</v>
+        <v>0.2124746249682349</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>-0.3732657632254691</v>
+        <v>0.08627168181555042</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.7618617738509401</v>
+        <v>0.4169297448218632</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.6248419395661803</v>
+        <v>-0.6571964890880001</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.3266651439894196</v>
+        <v>-0.8238732471685559</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.08044858520371541</v>
+        <v>-0.8919581306743976</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.3999004102225682</v>
+        <v>-0.0322426055739175</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>-0.793718402042457</v>
+        <v>0.8017602621676135</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>-0.7988508819018971</v>
+        <v>0.901879898567944</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>-0.864628320063815</v>
+        <v>0.6775375913253652</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>1.04211530800023</v>
+        <v>0.02063363425912555</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.03018314780714886</v>
+        <v>0.1887148590285564</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.8684152567950542</v>
+        <v>-0.6033020767533793</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-0.9118802767816215</v>
+        <v>0.3503846692102829</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>2.492247394976312</v>
+        <v>-0.7447796819700221</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>1.026577867953403</v>
+        <v>0.7321290938533056</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>1.90027736537528</v>
+        <v>-0.9209422516681132</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-0.7933938486139049</v>
+        <v>1.209963710451628</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>-0.7224378541347908</v>
+        <v>-0.4622469923212231</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>-0.927474603802327</v>
+        <v>1.165626363797841</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>-0.8651986872289497</v>
+        <v>1.871759816379655</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.2152193592397165</v>
+        <v>0.1727415990874819</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-0.4494803991881385</v>
+        <v>0.4146485061144948</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>1.123223165889809</v>
+        <v>1.343455362527411</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>-0.156111227335307</v>
+        <v>-0.8141964972716887</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>-0.1683714271794546</v>
+        <v>-0.7649291589929436</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.3356105947652904</v>
+        <v>-0.05790381510514729</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.3652927409566727</v>
+        <v>-0.8806524566427603</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>-0.7895020839724005</v>
+        <v>-0.1649492708515353</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>-0.847971549659333</v>
+        <v>-0.9352059166201115</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>1.805425251280411</v>
+        <v>-0.1470008231036488</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.2736783938953105</v>
+        <v>0.3585695403265001</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>-0.1622583098975911</v>
+        <v>0.6266129611666013</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>-0.906410407646295</v>
+        <v>0.3432185122444703</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>-0.1449181478667979</v>
+        <v>0.428367264071788</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>-0.9176923375470764</v>
+        <v>0.4657814084212588</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>-0.7962478127521412</v>
+        <v>1.89334550751054</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.3286873039787641</v>
+        <v>-0.9401358260706121</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>-0.7974834232114807</v>
+        <v>0.7694292168123584</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.4920923373287964</v>
+        <v>-0.1456837371523704</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>1.826279387917392</v>
+        <v>-0.9321134940626568</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>-0.9111732389434405</v>
+        <v>-0.7795317947683569</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>-0.8148151344883544</v>
+        <v>-0.9639326500227062</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>-0.2868439734044793</v>
+        <v>0.1214704991849251</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>-0.8024355928279598</v>
+        <v>-0.8182247834082934</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>1.512767880707074</v>
+        <v>1.170273516958478</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>-0.9341635715306232</v>
+        <v>1.66090892543265</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>-0.3553201199352731</v>
+        <v>-0.8255689319745093</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>-0.6673811697422392</v>
+        <v>1.564553362480464</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>-0.6788270498028031</v>
+        <v>-0.8156504486619565</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>-0.7191743675728132</v>
+        <v>0.8495965314946653</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.371029935766357</v>
+        <v>1.758844372994023</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>-0.7982218914847727</v>
+        <v>0.1681835943765513</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>-0.7909067599113039</v>
+        <v>1.568836146206257</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>-0.6378229182316375</v>
+        <v>0.2132573508399695</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.7399504867899046</v>
+        <v>-0.2958969233408027</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.1595844445276592</v>
+        <v>0.9320200829880811</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>-0.6338043532449663</v>
+        <v>-0.913561093200746</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>-0.7839087399927038</v>
+        <v>-0.8352547616088845</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>-0.2887680528910129</v>
+        <v>-0.9570090360711514</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>1.811773292610028</v>
+        <v>-0.8858176933892786</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>-0.8854991427563319</v>
+        <v>0.9075682365381429</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.7568550228522234</v>
+        <v>1.216626281576219</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.1480549478429329</v>
+        <v>0.09528488526010119</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>-0.8586959865852033</v>
+        <v>0.3870465060543253</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.8739108129275207</v>
+        <v>0.6419094246773901</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.713795918595764</v>
+        <v>0.2300167711290297</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.08915632474422265</v>
+        <v>-0.9221031878350293</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>-0.8447570952974361</v>
+        <v>0.3066660367423423</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.6172553679954627</v>
+        <v>-0.5957003805214292</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.3005627317638154</v>
+        <v>-0.7409665369871892</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>-0.1720772381487662</v>
+        <v>-0.1266359609056014</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.05368408481572558</v>
+        <v>-0.6829307039577196</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>-0.5784109567190787</v>
+        <v>-0.8175206968895453</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>1.156864186603953</v>
+        <v>-0.8130799044321524</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>-0.9531207479015138</v>
+        <v>0.5141904443462663</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>-0.6626849821741164</v>
+        <v>-0.9835548363054041</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>1.790104569683648</v>
+        <v>-0.4439384096521183</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>-0.7884233332619236</v>
+        <v>-0.1820872388872414</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.4938648751540843</v>
+        <v>-0.7463200127045411</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>1.489703401152116</v>
+        <v>-0.8071985805354776</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>-0.4317923074658967</v>
+        <v>-0.8945546807633443</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>-0.8671368712151929</v>
+        <v>-0.8516776689906882</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>-0.7239259819602583</v>
+        <v>0.3292207594418295</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.07374163412416761</v>
+        <v>0.5282969103842483</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.03178140636750554</v>
+        <v>-0.8938844643644468</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>-0.8257129920041534</v>
+        <v>-0.8961438993972912</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.8395307377038904</v>
+        <v>-0.8242177915455782</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>-0.8700203647296442</v>
+        <v>-0.7830358579570086</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.2193220507444986</v>
+        <v>-0.1712768337610019</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>-0.363785518540969</v>
+        <v>-0.8713898315562877</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>-0.7991837494238294</v>
+        <v>0.6686346057536094</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>-0.7593975009862034</v>
+        <v>-0.9291391209676548</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>-0.8972768447097241</v>
+        <v>-0.498094511913016</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>-0.1788154599526844</v>
+        <v>-0.9097336589687555</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>-0.7661921891631123</v>
+        <v>0.8705114697325702</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.3871251157886877</v>
+        <v>-0.6199764272460807</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>1.377328948115371</v>
+        <v>1.728744782123718</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>-0.8818014230048989</v>
+        <v>2.017226198138884</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>-0.7913106507411971</v>
+        <v>-0.8721925090013987</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>-0.6018642708766855</v>
+        <v>-0.8595878023672257</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>-0.8252678567716496</v>
+        <v>-0.8027279890970526</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>2.864861608844267</v>
+        <v>2.401532182571022</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>-0.876997590737676</v>
+        <v>-0.8593200842231564</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>-0.8098466686865435</v>
+        <v>-0.8978755686492397</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>-0.7784222517332539</v>
+        <v>1.006423746681523</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>-0.8032303068954957</v>
+        <v>-0.9086595660323785</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>-0.8330964003244193</v>
+        <v>0.4223303310629938</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>-0.8703452118380917</v>
+        <v>2.445142454209213</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.9694160392067535</v>
+        <v>2.247182632564221</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>-0.8807637318455002</v>
+        <v>-0.7515240210947292</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>-0.8827984561804487</v>
+        <v>-0.9107656676560149</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>2.359375541871922</v>
+        <v>0.3163150207440732</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>1.798102789939312</v>
+        <v>-0.8551983200875602</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>-0.7355053372024816</v>
+        <v>0.734266815635598</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.7091058237627088</v>
+        <v>0.2709344284574052</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.3026955910259909</v>
+        <v>3.046127595366666</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>1.93032495275392</v>
+        <v>-0.7556395584435389</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>-0.5566412578503418</v>
+        <v>-0.4831258938300935</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>-0.530360881242613</v>
+        <v>1.741598786746055</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>-0.6753683704053268</v>
+        <v>0.6938265088258289</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.6674129450709667</v>
+        <v>-0.2070966948625666</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>-0.829878232458602</v>
+        <v>0.8720965610225723</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.8396412978372156</v>
+        <v>0.5413807109352609</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.5201336441828298</v>
+        <v>0.4534363347323464</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>-0.8620743164009038</v>
+        <v>-0.8324328320548766</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.2625756766311363</v>
+        <v>-0.8275837082722899</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>-0.8244147581941507</v>
+        <v>0.1874054016867046</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.1781548110554304</v>
+        <v>-0.9115998511709372</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>-0.8664893689288768</v>
+        <v>1.268697217232379</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>-0.6381187146363635</v>
+        <v>1.034834000512798</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.996863449238534</v>
+        <v>0.1143335585771875</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>-0.7631286463146776</v>
+        <v>1.893121605938574</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.8427345151590739</v>
+        <v>-0.8967743666558676</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.567398828920221</v>
+        <v>-0.2569013989024675</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>-0.2510941146354821</v>
+        <v>-0.8616250960709179</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.4051179667376398</v>
+        <v>0.7689086375274202</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.2031306191824734</v>
+        <v>0.5072846873139762</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>-0.7508564309896814</v>
+        <v>-0.5553955394316344</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.2624649542908957</v>
+        <v>-0.5939662537797159</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>-0.5767356007715543</v>
+        <v>1.081673275776583</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>-0.6966023266361424</v>
+        <v>-0.8648684007203398</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>1.027644503071512</v>
+        <v>1.8641804861212</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>-0.7764342248439883</v>
+        <v>0.3851996794365283</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.3692456994220614</v>
+        <v>-0.6960590202058466</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>-0.6240495549089289</v>
+        <v>-0.7275911988754096</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>-0.7518280915987088</v>
+        <v>-0.9408676665039274</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>1.446038745083407</v>
+        <v>0.2978362954378017</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>-0.7900953227865825</v>
+        <v>0.8940087625340972</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>2.317243253496056</v>
+        <v>4.003938330026189</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>3.865342711806273</v>
+        <v>0.9873786960587699</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>-0.7955941898458904</v>
+        <v>-0.9278686379722288</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>-0.8993217946137636</v>
+        <v>0.1000577238155468</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.09376740839116787</v>
+        <v>-0.3368389500765349</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>-0.3644400424284948</v>
+        <v>0.3950187672502388</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.378732011334714</v>
+        <v>0.438002842331538</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.4202593254023781</v>
+        <v>0.3129915816345806</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.2994847856422888</v>
+        <v>-0.9656974055653402</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>-0.9358685182471225</v>
+        <v>-0.6243364906944858</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>-0.6060765686598623</v>
+        <v>1.775045740586717</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>1.711988884611566</v>
+        <v>1.433351700263344</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>-0.8692813303670078</v>
+        <v>-0.5533020875678448</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>-0.4155559038886264</v>
+        <v>-0.8893145336185999</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.4106142378307469</v>
+        <v>-0.7828907327038389</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>-0.7592572941315449</v>
+        <v>0.4872924681372969</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.4678784905755644</v>
+        <v>-0.8099302858027777</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>-0.585755026034845</v>
+        <v>-0.9419416012908316</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>-0.9129178151513461</v>
+        <v>-0.9164024337991109</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>-0.8882441882918785</v>
+        <v>0.3662141875916366</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.1182846795034654</v>
+        <v>0.1562496477134376</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>1.109210866215235</v>
+        <v>1.499766180085061</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>1.704169022171889</v>
+        <v>-0.8377160834713173</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>-0.8632319716455225</v>
+        <v>0.2331148615972067</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.1639879752025639</v>
+        <v>0.5235524974483158</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>-0.6852645069019559</v>
+        <v>-0.9240581640300481</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>-0.8813515614002461</v>
+        <v>1.151122518442172</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>-0.7641836049627579</v>
+        <v>0.1806719575714799</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>-0.7749626167363343</v>
+        <v>1.355113372799484</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>-0.6741907788896581</v>
+        <v>1.717718199350911</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>-0.05884070112297937</v>
+        <v>0.7191821967015832</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>-0.8840991893099005</v>
+        <v>0.2146600787165674</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.2044858076091809</v>
+        <v>1.312662133398788</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>1.265275788212148</v>
+        <v>-0.1875447136233476</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.01703505797279085</v>
+        <v>0.2460263821613952</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.3367749007500973</v>
+        <v>-0.3634305596324711</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.07017284473507605</v>
+        <v>0.4037062983394676</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.6516760706218966</v>
+        <v>-0.5459647282570618</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>-0.5394720754888216</v>
+        <v>-0.841762930153885</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.7533797141746378</v>
+        <v>1.32066550878902</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>-0.8677152944780087</v>
+        <v>0.2815612070883734</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.2691196089442625</v>
+        <v>0.2509185133577668</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.2395154179962615</v>
+        <v>-0.507174777453878</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>1.222800874464496</v>
+        <v>0.8719821224854682</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>-0.4865924192028104</v>
+        <v>-0.12158427279762</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>-0.1203629826089986</v>
+        <v>0.125435050665118</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>-0.7685827112431157</v>
+        <v>1.152288967012662</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>1.094168239790819</v>
+        <v>-0.1103087421854143</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>-0.1094695877848234</v>
+        <v>0.0474760868491866</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.04296780066751578</v>
+        <v>-0.9696688543614801</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>-0.1436456988993744</v>
+        <v>-0.7690017639088087</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>-0.7458390324116799</v>
+        <v>-0.6948401192665244</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.6024773125613077</v>
+        <v>-0.7587495600087638</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>-0.7359342830262937</v>
+        <v>1.284444404497974</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>-0.7093917117331914</v>
+        <v>0.3141073416605181</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>1.65660421470479</v>
+        <v>-0.9471179529053644</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>-0.9179187365115192</v>
+        <v>1.677513866823886</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>-0.6867013736983884</v>
+        <v>-0.8733437252699461</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>-0.8466447701572175</v>
+        <v>-0.84452378331188</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.1716495681718434</v>
+        <v>-0.8272356179081964</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>1.495930602629451</v>
+        <v>-0.8284063005808472</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>-0.5090937245621946</v>
+        <v>-0.9239237097759538</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>-0.8926301484899154</v>
+        <v>0.7523257253191838</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>-0.3725714061212422</v>
+        <v>0.2763515103463119</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.2640864725467545</v>
+        <v>2.369078581168734</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>2.285889527831137</v>
+        <v>0.3745061720055988</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.3589146025977359</v>
+        <v>-0.3343632154062466</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>-0.3259306948368698</v>
+        <v>-0.775200916816751</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.9510164389559718</v>
+        <v>0.01677600835631803</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>-0.903422789498633</v>
+        <v>-0.2934530451739179</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>-0.2375062065850619</v>
+        <v>0.2747877163344026</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>-0.8687412585020187</v>
+        <v>-0.8070873177393466</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>-0.8095023615332155</v>
+        <v>-0.8006324124392903</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.1069270808021449</v>
+        <v>1.544962574241405</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>-0.7763976956655667</v>
+        <v>-0.5970437585640426</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>1.656358386407469</v>
+        <v>-0.78558657649532</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>2.168124720011002</v>
+        <v>-0.8064984409219166</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>1.756546357380637</v>
+        <v>0.4280194090743563</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>-0.7080285053162872</v>
+        <v>1.20311792514965</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.7716887464008455</v>
+        <v>-0.7103690906409417</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>-0.6891934623298267</v>
+        <v>-0.4198383090491102</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>-0.61649703454349</v>
+        <v>0.9200324917608685</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>-0.9397053718062373</v>
+        <v>-0.8837269505666276</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>-0.8566761005305027</v>
+        <v>-0.9360464741953317</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>-0.9072224781247706</v>
+        <v>-0.1411216375548054</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>-0.9109047333602934</v>
+        <v>0.1165865628006369</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>0.1097360732143462</v>
+        <v>-0.8140485468039165</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>-0.801448382826102</v>
+        <v>-0.8882114762162231</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>-0.8610086424019514</v>
+        <v>0.9954838770920246</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.7239295813237376</v>
+        <v>0.2004980361179881</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.02584805917650149</v>
+        <v>-0.8271293078871813</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>1.625771043063971</v>
+        <v>-0.6864399561068697</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>-0.840237728040546</v>
+        <v>-0.929456416795357</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>-0.4600359307732546</v>
+        <v>-0.6613814421165318</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>0.6263344322617944</v>
+        <v>-0.7071285966634432</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>-0.6860627910083327</v>
+        <v>-0.4731728075915879</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0.2155973740271711</v>
+        <v>-0.9159474878743191</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>-0.7920000038241685</v>
+        <v>-0.7103455891823593</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>-0.6891707573524657</v>
+        <v>-0.631011973472557</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>-0.8835959459208511</v>
+        <v>-0.625046616137841</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>-0.883859226576719</v>
+        <v>1.068852802383138</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4494,15 +4494,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>0.2848431229221162</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2">
-      <c r="A517" s="1">
-        <v>515</v>
-      </c>
-      <c r="B517">
-        <v>-0.8263729861906737</v>
+        <v>0.07563547261838888</v>
       </c>
     </row>
   </sheetData>
